--- a/etapa_2/pessoas_recursos/dados/cursos_posgrad_agg.xlsx
+++ b/etapa_2/pessoas_recursos/dados/cursos_posgrad_agg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>conceito_maior_igual_quatro</t>
+          <t>conceito_maior_igual_cinco</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>conceito_maior_cinco</t>
         </is>
       </c>
     </row>
@@ -498,7 +503,10 @@
         <v>2132</v>
       </c>
       <c r="H2" t="n">
-        <v>4288</v>
+        <v>1998</v>
+      </c>
+      <c r="I2" t="n">
+        <v>825</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,10 @@
         <v>2146</v>
       </c>
       <c r="H3" t="n">
-        <v>4340</v>
+        <v>2004</v>
+      </c>
+      <c r="I3" t="n">
+        <v>825</v>
       </c>
     </row>
     <row r="4">
@@ -550,7 +561,10 @@
         <v>2176</v>
       </c>
       <c r="H4" t="n">
-        <v>4401</v>
+        <v>2007</v>
+      </c>
+      <c r="I4" t="n">
+        <v>825</v>
       </c>
     </row>
     <row r="5">
@@ -576,7 +590,10 @@
         <v>2201</v>
       </c>
       <c r="H5" t="n">
-        <v>4467</v>
+        <v>2013</v>
+      </c>
+      <c r="I5" t="n">
+        <v>825</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +619,10 @@
         <v>2229</v>
       </c>
       <c r="H6" t="n">
-        <v>4872</v>
+        <v>2447</v>
+      </c>
+      <c r="I6" t="n">
+        <v>990</v>
       </c>
     </row>
     <row r="7">
@@ -628,7 +648,10 @@
         <v>2416</v>
       </c>
       <c r="H7" t="n">
-        <v>5043</v>
+        <v>2469</v>
+      </c>
+      <c r="I7" t="n">
+        <v>978</v>
       </c>
     </row>
     <row r="8">
@@ -654,7 +677,10 @@
         <v>2460</v>
       </c>
       <c r="H8" t="n">
-        <v>5337</v>
+        <v>2733</v>
+      </c>
+      <c r="I8" t="n">
+        <v>978</v>
       </c>
     </row>
     <row r="9">
@@ -680,7 +706,10 @@
         <v>2520</v>
       </c>
       <c r="H9" t="n">
-        <v>5444</v>
+        <v>2788</v>
+      </c>
+      <c r="I9" t="n">
+        <v>976</v>
       </c>
     </row>
     <row r="10">
@@ -706,7 +735,10 @@
         <v>2543</v>
       </c>
       <c r="H10" t="n">
-        <v>6021</v>
+        <v>3441</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1356</v>
       </c>
     </row>
     <row r="11">
@@ -732,7 +764,10 @@
         <v>2515</v>
       </c>
       <c r="H11" t="n">
-        <v>5993</v>
+        <v>3440</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1354</v>
       </c>
     </row>
   </sheetData>
